--- a/letterExplanation.xlsx
+++ b/letterExplanation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\necha\Desktop\Letter progect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\necha\Desktop\LetterProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38ED595-894C-4458-9680-D678938FC4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913BEE31-5F92-45EB-9ADA-E0A1C445A875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
   <si>
     <t>a</t>
   </si>
@@ -49,6 +49,78 @@
   </si>
   <si>
     <t>nothing</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>looped</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>balance of personality</t>
+  </si>
+  <si>
+    <t>stress and fearful(curl up)</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>drooping- depression</t>
+  </si>
+  <si>
+    <t>Loose looped-ability to decide with full logic</t>
+  </si>
+  <si>
+    <t>Sharp Arc- Doers, instead of thinkers</t>
+  </si>
+  <si>
+    <t>square-high moral values</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>a bit unbelieving and aren’t easily rattled by emotional situations</t>
+  </si>
+  <si>
+    <t>innovative and not at all held back by anything</t>
+  </si>
+  <si>
+    <t>bouth</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>execution</t>
+  </si>
+  <si>
+    <t>planners</t>
+  </si>
+  <si>
+    <t>hinks too  much before socializing with anyone</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -383,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -395,9 +467,10 @@
     <col min="2" max="2" width="1.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.4140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.08203125" customWidth="1"/>
+    <col min="6" max="6" width="1.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1">
         <v>1</v>
       </c>
@@ -411,8 +484,11 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>2</v>
       </c>
@@ -428,8 +504,11 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>3</v>
       </c>
@@ -445,160 +524,307 @@
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>32</v>
       </c>

--- a/letterExplanation.xlsx
+++ b/letterExplanation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\necha\Desktop\LetterProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913BEE31-5F92-45EB-9ADA-E0A1C445A875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D996490-2340-4307-98F1-4E82A5AACD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
   <si>
     <t>a</t>
   </si>
@@ -121,6 +121,39 @@
   </si>
   <si>
     <t>g</t>
+  </si>
+  <si>
+    <t>likes to spend his free time socially</t>
+  </si>
+  <si>
+    <t>physically active</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>anti-spiritual value</t>
+  </si>
+  <si>
+    <t>culture and taste</t>
+  </si>
+  <si>
+    <t>idealism</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>adaptability</t>
+  </si>
+  <si>
+    <t>avarice and egoism</t>
+  </si>
+  <si>
+    <t>diplomacy and impenetrability</t>
+  </si>
+  <si>
+    <t>vanity</t>
   </si>
 </sst>
 </file>
@@ -457,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -762,6 +795,9 @@
       <c r="C20" t="s">
         <v>30</v>
       </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
@@ -770,6 +806,12 @@
       <c r="B21" t="s">
         <v>31</v>
       </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
@@ -778,40 +820,109 @@
       <c r="B22" t="s">
         <v>31</v>
       </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
         <v>23</v>
       </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
         <v>24</v>
       </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
         <v>25</v>
       </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
         <v>26</v>
       </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
         <v>27</v>
       </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
         <v>28</v>
       </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
         <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6">
